--- a/Mappings/GeneralMeasurement - STU3.xlsx
+++ b/Mappings/GeneralMeasurement - STU3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Nictiz-STU3-Zib2017\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB88585-DBA9-4C84-839B-11902575AE9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D4D5B9F-4218-4FFC-801A-8D42C3B5A67C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
   <si>
     <t>Subject</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Constraints</t>
-  </si>
-  <si>
     <t>GeneralMeasurement</t>
   </si>
   <si>
@@ -481,6 +478,33 @@
   </si>
   <si>
     <t>The user may copy, distribute and pass on the information in this Health and Care Information Model under the conditions that apply for Creative Commons license Attribution-NonCommercial-ShareAlike 3.0 Netherlands (CC BY-NCSA-3.0). The content is available under Creative Commons Attribution-NonCommercial-ShareAlike 3.0 (see also http://creativecommons.org/licenses/by-nc-sa/3.0/nl/)</t>
+  </si>
+  <si>
+    <t>Maps To</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Observation.code / Observation.component.code</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>Observation.comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation.code </t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>Observation.effectiveDateTime</t>
+  </si>
+  <si>
+    <t>Observation.value/ Observation.component.value</t>
   </si>
 </sst>
 </file>
@@ -516,7 +540,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,8 +567,20 @@
         <fgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -604,11 +640,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -665,6 +712,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,7 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1220,10 +1277,11 @@
     <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="C3:C8" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1447,9 +1505,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1462,10 +1522,11 @@
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>54</v>
       </c>
@@ -1499,12 +1560,15 @@
         <v>65</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1512,278 +1576,301 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1793,6 +1880,7 @@
     <hyperlink ref="O10" location="MeasuringMethodCodelist!A1" display="MeasuringMethodCodelist" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="J3:J10" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -1814,33 +1902,33 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1870,33 +1958,33 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +2003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1928,27 +2018,27 @@
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>1</v>
@@ -1956,36 +2046,36 @@
     </row>
     <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -1993,50 +2083,50 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2066,33 +2156,33 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2120,32 +2210,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Mappings/GeneralMeasurement - STU3.xlsx
+++ b/Mappings/GeneralMeasurement - STU3.xlsx
@@ -1,209 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Nictiz-STU3-Zib2017\Mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn-nadm\Documents\Mijn docs\git\nictiz-stu3-zib2017\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D4D5B9F-4218-4FFC-801A-8D42C3B5A67C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11328"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
-    <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="MeasurementNameCodelist" sheetId="5" r:id="rId5"/>
-    <sheet name="MeasuringMethodCodelist" sheetId="6" r:id="rId6"/>
-    <sheet name="ResultStatusCodelist" sheetId="7" r:id="rId7"/>
-    <sheet name="TestCodelist" sheetId="8" r:id="rId8"/>
-    <sheet name="Terms of Use" sheetId="9" r:id="rId9"/>
+    <sheet name="Data" sheetId="4" r:id="rId1"/>
+    <sheet name="MeasurementNameCodelist" sheetId="5" r:id="rId2"/>
+    <sheet name="MeasuringMethodCodelist" sheetId="6" r:id="rId3"/>
+    <sheet name="ResultStatusCodelist" sheetId="7" r:id="rId4"/>
+    <sheet name="TestCodelist" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
-  <si>
-    <t>Subject</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>HCIM</t>
-  </si>
-  <si>
-    <t>nl.zorg.GeneralMeasurement</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>HCIM Status</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>Release status</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>Release date</t>
-  </si>
-  <si>
-    <t>31-12-2017</t>
-  </si>
-  <si>
-    <t>XLS created on</t>
-  </si>
-  <si>
-    <t>22-1-2018 11:15:48</t>
-  </si>
-  <si>
-    <t>Based on</t>
-  </si>
-  <si>
-    <t>Release 2017</t>
-  </si>
-  <si>
-    <t>Managed by</t>
-  </si>
-  <si>
-    <t>Nictiz, Den Haag</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>DCM::CoderList</t>
-  </si>
-  <si>
-    <t>Werkgroep RadB Verpleegkundige Gegevens</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Address</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Name</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Telecom</t>
-  </si>
-  <si>
-    <t>DCM::ContentAuthorList</t>
-  </si>
-  <si>
-    <t>DCM::CreationDate</t>
-  </si>
-  <si>
-    <t>14-3-2014</t>
-  </si>
-  <si>
-    <t>DCM::DescriptionLanguage</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Address</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Name</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Telecom</t>
-  </si>
-  <si>
-    <t>DCM::Id</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.4.3.11.60.40.3.13.3</t>
-  </si>
-  <si>
-    <t>DCM::KeywordList</t>
-  </si>
-  <si>
-    <t>Algemene meting</t>
-  </si>
-  <si>
-    <t>DCM::LifecycleStatus</t>
-  </si>
-  <si>
-    <t>DCM::ModelerList</t>
-  </si>
-  <si>
-    <t>DCM::Name</t>
-  </si>
-  <si>
-    <t>nl.zorg.AlgemeneMeting</t>
-  </si>
-  <si>
-    <t>DCM::PublicationDate</t>
-  </si>
-  <si>
-    <t>DCM::PublicationStatus</t>
-  </si>
-  <si>
-    <t>DCM::ReviewerList</t>
-  </si>
-  <si>
-    <t>Projectgroep RadB Verpleegkundige Gegevens &amp; Kerngroep Registratie aan de Bron</t>
-  </si>
-  <si>
-    <t>DCM::RevisionDate</t>
-  </si>
-  <si>
-    <t>DCM::Superseeds</t>
-  </si>
-  <si>
-    <t>nl.nfu.AlgemeneMeting-v1.0</t>
-  </si>
-  <si>
-    <t>DCM::Version</t>
-  </si>
-  <si>
-    <t>HCIM::PublicationLanguage</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
     <t>Concept</t>
   </si>
   <si>
-    <t>A general measurement determines the result of a measurement or determination made for a patient. The information model is used to record the measurement results for which no specific information models have yet been formulated. The information model is not intended for laboratory determinations to be carried out on the material taken from the patient.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>The measurement and documentation of physiological observations are an important tool for evaluating a patient’s condition. This information model offers the option to record various relevant measurement values.</t>
-  </si>
-  <si>
     <t>Alias</t>
   </si>
   <si>
@@ -460,24 +290,6 @@
   </si>
   <si>
     <t>Valueset OID: 2.16.840.1.113883.2.4.3.11.60.40.2.13.3.3</t>
-  </si>
-  <si>
-    <t>Disclaimer</t>
-  </si>
-  <si>
-    <t>This Health and Care Information Model (a.k.a Clinical Building Block) has been made in collaboration with several different parties in healthcare. These parties asked Nictiz to manage good maintenance and development of the information models. Hereafter, these parties and Nictiz are referred to as the collaborating parties. The collaborating parties paid utmost attention to the reliability and topicality of the data in these Health and Care Information Models. Omissions and inaccuracies may however occur. The collaborating parties are not liable for any damages resulting from omissions or inaccuracies in the information provided, nor are they liable for damages resulting from problems caused by or inherent to distributing information on the internet, such as malfunctions, interruptions, errors or delays in information or services provide by the parties to you or by you to the parties via a website or via e-mail, or any other digital means. The collaborating parties will also not accept liability for any damages resulting from the use of data, advice or ideas provided by or on behalf of the parties by means of this Health and Care Information Model. The parties will not accept any liability for the content of information in this Health and Care Information Model to which or from which a hyperlink is referred. In the event of contradictions in mentioned Health and Care Information Model documents and files, the most recent and highest version of the listed order in the revisions will indicate the priority of the documents in question. If information included in the digital version of this Health and Care Information Model is also distributed in writing, the written version will be leading in case of textual differences. This will apply if both have the same version number and date. A definitive version has priority over a draft version. A revised version has priority over previous versions.</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>The user may use the information in this Health and Care Information Model without limitations. The copyright provisions in the paragraph concerned apply to copying, distributing and passing on information from this Health and Care Information Model.</t>
-  </si>
-  <si>
-    <t>Copyrights</t>
-  </si>
-  <si>
-    <t>The user may copy, distribute and pass on the information in this Health and Care Information Model under the conditions that apply for Creative Commons license Attribution-NonCommercial-ShareAlike 3.0 Netherlands (CC BY-NCSA-3.0). The content is available under Creative Commons Attribution-NonCommercial-ShareAlike 3.0 (see also http://creativecommons.org/licenses/by-nc-sa/3.0/nl/)</t>
   </si>
   <si>
     <t>Maps To</t>
@@ -510,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -711,9 +523,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -722,9 +531,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,136 +551,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2856900" cy="618995"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2856900" cy="618995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5080000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1428750" cy="504825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1428750" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="635000" y="635000"/>
-    <xdr:ext cx="6772275" cy="5200650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6772275" cy="5200650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1163,355 +847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:C8" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:C25" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -1522,13 +865,13 @@
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" customWidth="1"/>
+    <col min="16" max="16" width="29.87890625" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1536,39 +879,39 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1576,308 +919,308 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="4" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="Q11" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" location="TestCodelist!A1" display="TestCodelist" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="O5" location="ResultStatusCodelist!A1" display="ResultStatusCodelist" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="O8" location="MeasurementNameCodelist!A1" display="MeasurementNameCodelist" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="O10" location="MeasuringMethodCodelist!A1" display="MeasuringMethodCodelist" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="O4" location="TestCodelist!A1" display="TestCodelist"/>
+    <hyperlink ref="O5" location="ResultStatusCodelist!A1" display="ResultStatusCodelist"/>
+    <hyperlink ref="O8" location="MeasurementNameCodelist!A1" display="MeasurementNameCodelist"/>
+    <hyperlink ref="O10" location="MeasuringMethodCodelist!A1" display="MeasuringMethodCodelist"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1887,48 +1230,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C4" s="18" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1943,48 +1286,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C4" s="18" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1999,15 +1342,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -2016,117 +1359,117 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2141,48 +1484,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C4" s="18" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2195,50 +1540,4 @@
     <ignoredError sqref="D5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="150" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>